--- a/data/pca/factorExposure/factorExposure_2018-09-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0351981396532501</v>
+        <v>0.02960360876951662</v>
       </c>
       <c r="C2">
-        <v>-0.04669305464147963</v>
+        <v>0.01317670243913274</v>
       </c>
       <c r="D2">
-        <v>-0.03709598789170394</v>
+        <v>0.01021843779166076</v>
       </c>
       <c r="E2">
-        <v>-0.05102966924289778</v>
+        <v>-0.01422607768541477</v>
       </c>
       <c r="F2">
-        <v>0.1433124191908589</v>
+        <v>-0.02347964633592649</v>
       </c>
       <c r="G2">
-        <v>-0.06132445753077197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08107140925303763</v>
+      </c>
+      <c r="H2">
+        <v>-0.01584048223025931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.117138321608933</v>
+        <v>0.07607443235805411</v>
       </c>
       <c r="C3">
-        <v>-0.002772707852069531</v>
+        <v>-0.01795016151015911</v>
       </c>
       <c r="D3">
-        <v>-0.04481111210273304</v>
+        <v>0.0195016348725106</v>
       </c>
       <c r="E3">
-        <v>-0.1069523301485043</v>
+        <v>-0.007107917064768658</v>
       </c>
       <c r="F3">
-        <v>0.386862915669638</v>
+        <v>0.0121242821139304</v>
       </c>
       <c r="G3">
-        <v>-0.1645924028966653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2698403865593652</v>
+      </c>
+      <c r="H3">
+        <v>-0.04057749555085857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05163088891038267</v>
+        <v>0.04743007114565579</v>
       </c>
       <c r="C4">
-        <v>-0.03631955148558613</v>
+        <v>0.000252341433840456</v>
       </c>
       <c r="D4">
-        <v>0.001831777665229176</v>
+        <v>0.02900812491221332</v>
       </c>
       <c r="E4">
-        <v>-0.068767836685291</v>
+        <v>0.02079741707625834</v>
       </c>
       <c r="F4">
-        <v>0.06874224746798652</v>
+        <v>-0.05962091231276038</v>
       </c>
       <c r="G4">
-        <v>-0.04879166198886859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04767882068666267</v>
+      </c>
+      <c r="H4">
+        <v>-0.02639454256139998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01256108961024498</v>
+        <v>0.02994747181398544</v>
       </c>
       <c r="C6">
-        <v>0.001376232813355032</v>
+        <v>0.001080270412508726</v>
       </c>
       <c r="D6">
-        <v>-0.01442837283199304</v>
+        <v>0.03565250196163972</v>
       </c>
       <c r="E6">
-        <v>-0.01945451323306721</v>
+        <v>0.00517606280738303</v>
       </c>
       <c r="F6">
-        <v>0.01181514927026956</v>
+        <v>-0.03692107482140861</v>
       </c>
       <c r="G6">
-        <v>0.004378142612089086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01404242288464713</v>
+      </c>
+      <c r="H6">
+        <v>-0.05219437230807975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02825664355126166</v>
+        <v>0.02064388419173484</v>
       </c>
       <c r="C7">
-        <v>-0.02058052883463311</v>
+        <v>0.0009653159278794819</v>
       </c>
       <c r="D7">
-        <v>-0.03032371162530119</v>
+        <v>0.01670953686696239</v>
       </c>
       <c r="E7">
-        <v>-0.03912392065539452</v>
+        <v>0.03584619762087497</v>
       </c>
       <c r="F7">
-        <v>0.0616882084712244</v>
+        <v>-0.02501819201011594</v>
       </c>
       <c r="G7">
-        <v>-0.05962139523376857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0369715693749717</v>
+      </c>
+      <c r="H7">
+        <v>-0.01336584612785693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01531979359697767</v>
+        <v>0.003775937452051824</v>
       </c>
       <c r="C8">
-        <v>-0.01248938844602431</v>
+        <v>-0.001823561232798733</v>
       </c>
       <c r="D8">
-        <v>0.002846008504723132</v>
+        <v>0.008365534187235183</v>
       </c>
       <c r="E8">
-        <v>-0.07402370633473504</v>
+        <v>0.01198647289496564</v>
       </c>
       <c r="F8">
-        <v>0.08127055431308473</v>
+        <v>-0.02636835567943341</v>
       </c>
       <c r="G8">
-        <v>-0.06695357089474221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05420640457959237</v>
+      </c>
+      <c r="H8">
+        <v>-0.006293901220471507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04301450303833869</v>
+        <v>0.03834922067140924</v>
       </c>
       <c r="C9">
-        <v>-0.03139617201307694</v>
+        <v>-0.00329464947180914</v>
       </c>
       <c r="D9">
-        <v>0.01367251013586408</v>
+        <v>0.02405194402468197</v>
       </c>
       <c r="E9">
-        <v>-0.06796907919584837</v>
+        <v>0.01814635999316419</v>
       </c>
       <c r="F9">
-        <v>0.06693365846287501</v>
+        <v>-0.03832903738261097</v>
       </c>
       <c r="G9">
-        <v>-0.04952758280135598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0594640643596184</v>
+      </c>
+      <c r="H9">
+        <v>-0.02502852170326144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05379101176334929</v>
+        <v>0.09168716206080708</v>
       </c>
       <c r="C10">
-        <v>-0.0449888879881611</v>
+        <v>-0.04001136987054535</v>
       </c>
       <c r="D10">
-        <v>0.01451518806768438</v>
+        <v>-0.1432542612169201</v>
       </c>
       <c r="E10">
-        <v>0.1087989616632893</v>
+        <v>-0.01937363013012294</v>
       </c>
       <c r="F10">
-        <v>0.07467038855358467</v>
+        <v>0.07875622474394493</v>
       </c>
       <c r="G10">
-        <v>0.04301425603764036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02635611192523284</v>
+      </c>
+      <c r="H10">
+        <v>-0.004498220329811009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03434627596815483</v>
+        <v>0.02301343224587367</v>
       </c>
       <c r="C11">
-        <v>-0.01207055774244056</v>
+        <v>-0.01036996200038397</v>
       </c>
       <c r="D11">
-        <v>-0.01652128044574333</v>
+        <v>0.03228429264288403</v>
       </c>
       <c r="E11">
-        <v>-0.03541659730172225</v>
+        <v>-0.00395772503284281</v>
       </c>
       <c r="F11">
-        <v>0.03241196786834819</v>
+        <v>-0.02384001930960128</v>
       </c>
       <c r="G11">
-        <v>-0.02584739570019068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03502615444092928</v>
+      </c>
+      <c r="H11">
+        <v>-0.02684389199592385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04176986107227596</v>
+        <v>0.03187911480537106</v>
       </c>
       <c r="C12">
-        <v>-0.0133824642884971</v>
+        <v>-0.009539498947246526</v>
       </c>
       <c r="D12">
-        <v>-0.003438795693627275</v>
+        <v>0.03086238696916736</v>
       </c>
       <c r="E12">
-        <v>-0.04353390908369481</v>
+        <v>0.007175508891927006</v>
       </c>
       <c r="F12">
-        <v>0.01549757508994522</v>
+        <v>-0.02678788319884473</v>
       </c>
       <c r="G12">
-        <v>-0.01869939921944222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0126860571842079</v>
+      </c>
+      <c r="H12">
+        <v>-0.01357630616753757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01896880445265281</v>
+        <v>0.02559184483250364</v>
       </c>
       <c r="C13">
-        <v>-0.02357666237177564</v>
+        <v>0.01156055496102685</v>
       </c>
       <c r="D13">
-        <v>-0.03478118570387058</v>
+        <v>0.00267031285901909</v>
       </c>
       <c r="E13">
-        <v>-0.02153683607571456</v>
+        <v>-0.01666950052241508</v>
       </c>
       <c r="F13">
-        <v>0.08856595521334808</v>
+        <v>-0.02137098627597921</v>
       </c>
       <c r="G13">
-        <v>-0.03775806267662921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0660458860391593</v>
+      </c>
+      <c r="H13">
+        <v>-0.02439481840812171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01117241832205254</v>
+        <v>0.01573057410935489</v>
       </c>
       <c r="C14">
-        <v>-0.02140835778926907</v>
+        <v>-0.001227512768182123</v>
       </c>
       <c r="D14">
-        <v>-0.00379148403733293</v>
+        <v>0.0009859861696161374</v>
       </c>
       <c r="E14">
-        <v>-0.03994726916024125</v>
+        <v>0.008306748924499049</v>
       </c>
       <c r="F14">
-        <v>0.0633429612801379</v>
+        <v>-0.02602817850511074</v>
       </c>
       <c r="G14">
-        <v>-0.06439055734421328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04457253390550602</v>
+      </c>
+      <c r="H14">
+        <v>0.01986907712623445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0265038971319008</v>
+        <v>0.02373438116466861</v>
       </c>
       <c r="C16">
-        <v>-0.01333028521286684</v>
+        <v>-0.01078201395201089</v>
       </c>
       <c r="D16">
-        <v>-0.01400939726169024</v>
+        <v>0.02751860016570668</v>
       </c>
       <c r="E16">
-        <v>-0.03513949015503335</v>
+        <v>0.0009567934386174756</v>
       </c>
       <c r="F16">
-        <v>0.0355351887939028</v>
+        <v>-0.02490362585768856</v>
       </c>
       <c r="G16">
-        <v>-0.0269960076746486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03048186130143775</v>
+      </c>
+      <c r="H16">
+        <v>-0.02083100887984222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03811083881281577</v>
+        <v>0.03323997894806811</v>
       </c>
       <c r="C19">
-        <v>-0.01242072406931229</v>
+        <v>-0.003062905437861933</v>
       </c>
       <c r="D19">
-        <v>-0.02028950987550278</v>
+        <v>0.01076120171253853</v>
       </c>
       <c r="E19">
-        <v>-0.05953419338128743</v>
+        <v>-0.001273190040694408</v>
       </c>
       <c r="F19">
-        <v>0.0915924852403335</v>
+        <v>-0.03213307383988173</v>
       </c>
       <c r="G19">
-        <v>-0.04619961492219547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06947952068053904</v>
+      </c>
+      <c r="H19">
+        <v>-0.03741287038898854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003270733718937306</v>
+        <v>0.006868141050669712</v>
       </c>
       <c r="C20">
-        <v>-0.02188114791643566</v>
+        <v>0.006950194832444061</v>
       </c>
       <c r="D20">
-        <v>-0.008946470167929706</v>
+        <v>0.002511325212277485</v>
       </c>
       <c r="E20">
-        <v>-0.03366178679598559</v>
+        <v>0.001150010504257478</v>
       </c>
       <c r="F20">
-        <v>0.0602733238220279</v>
+        <v>-0.01824621004081757</v>
       </c>
       <c r="G20">
-        <v>-0.06663127291039291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04984190569313473</v>
+      </c>
+      <c r="H20">
+        <v>0.01001947958253746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001568056406242517</v>
+        <v>0.02257472006816083</v>
       </c>
       <c r="C21">
-        <v>0.001423461224933459</v>
+        <v>0.003961211009002409</v>
       </c>
       <c r="D21">
-        <v>-0.004727178977046476</v>
+        <v>0.00263273793200188</v>
       </c>
       <c r="E21">
-        <v>-0.03537192862209925</v>
+        <v>0.01256805927706534</v>
       </c>
       <c r="F21">
-        <v>0.07165639054215232</v>
+        <v>-0.008959645667928132</v>
       </c>
       <c r="G21">
-        <v>-0.03351605594834058</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05493758723561349</v>
+      </c>
+      <c r="H21">
+        <v>-0.005966570281636564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02991263947067763</v>
+        <v>0.02263085293009002</v>
       </c>
       <c r="C24">
-        <v>-0.01378336139826482</v>
+        <v>-0.00532793279746319</v>
       </c>
       <c r="D24">
-        <v>-0.01044834960973783</v>
+        <v>0.02816418947765827</v>
       </c>
       <c r="E24">
-        <v>-0.02675298446461939</v>
+        <v>0.000861232645818315</v>
       </c>
       <c r="F24">
-        <v>0.0339205334606316</v>
+        <v>-0.0207831014691691</v>
       </c>
       <c r="G24">
-        <v>-0.01926067113246402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0293281526586714</v>
+      </c>
+      <c r="H24">
+        <v>-0.02642077209333997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03285380999807406</v>
+        <v>0.03383834364792855</v>
       </c>
       <c r="C25">
-        <v>-0.01091683635425373</v>
+        <v>-0.004969885051812935</v>
       </c>
       <c r="D25">
-        <v>-0.008174169209262453</v>
+        <v>0.02385150346140147</v>
       </c>
       <c r="E25">
-        <v>-0.03623758078223084</v>
+        <v>0.001310916579288638</v>
       </c>
       <c r="F25">
-        <v>0.03256029554036196</v>
+        <v>-0.02524675041591586</v>
       </c>
       <c r="G25">
-        <v>-0.008053926648993893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0327674983444529</v>
+      </c>
+      <c r="H25">
+        <v>-0.02864757285874825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02025995735116356</v>
+        <v>0.02035594432036113</v>
       </c>
       <c r="C26">
-        <v>0.0002150497914087675</v>
+        <v>0.01585186971959777</v>
       </c>
       <c r="D26">
-        <v>-0.03652502081070781</v>
+        <v>0.003493208526812805</v>
       </c>
       <c r="E26">
-        <v>-0.04103114553879472</v>
+        <v>-0.006913463343398294</v>
       </c>
       <c r="F26">
-        <v>0.05566352391985622</v>
+        <v>-0.005940541787033128</v>
       </c>
       <c r="G26">
-        <v>-0.03230790427153277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03794266143135084</v>
+      </c>
+      <c r="H26">
+        <v>0.003208817481206239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07471126380478903</v>
+        <v>0.0317108973312798</v>
       </c>
       <c r="C27">
-        <v>-0.05041774656222398</v>
+        <v>-0.01527146905164032</v>
       </c>
       <c r="D27">
-        <v>-0.00108332305131639</v>
+        <v>0.009580459744437622</v>
       </c>
       <c r="E27">
-        <v>-0.05625070355498604</v>
+        <v>0.004206060251947759</v>
       </c>
       <c r="F27">
-        <v>0.05204531635128715</v>
+        <v>-0.02737447606862923</v>
       </c>
       <c r="G27">
-        <v>-0.05740024794138801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02764342153048481</v>
+      </c>
+      <c r="H27">
+        <v>0.001942110088671921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07892773558578374</v>
+        <v>0.1411247484218399</v>
       </c>
       <c r="C28">
-        <v>-0.06345913953396996</v>
+        <v>-0.04761925457734319</v>
       </c>
       <c r="D28">
-        <v>0.03586448763822548</v>
+        <v>-0.213541029310107</v>
       </c>
       <c r="E28">
-        <v>0.1760371594489876</v>
+        <v>-0.02418713184904884</v>
       </c>
       <c r="F28">
-        <v>0.09583404437547419</v>
+        <v>0.1073583362610317</v>
       </c>
       <c r="G28">
-        <v>0.02633714095250992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01246929959633389</v>
+      </c>
+      <c r="H28">
+        <v>0.009533703910727569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02002874556676616</v>
+        <v>0.02106358482827657</v>
       </c>
       <c r="C29">
-        <v>-0.02447501011216772</v>
+        <v>-0.00403689880192748</v>
       </c>
       <c r="D29">
-        <v>0.00437903655083033</v>
+        <v>0.002262243334606024</v>
       </c>
       <c r="E29">
-        <v>-0.05747281557935259</v>
+        <v>0.009899671982342737</v>
       </c>
       <c r="F29">
-        <v>0.04635282409003444</v>
+        <v>-0.02832940417585633</v>
       </c>
       <c r="G29">
-        <v>-0.06263767772534173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03719323349190376</v>
+      </c>
+      <c r="H29">
+        <v>0.02096703334323255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08724976752693396</v>
+        <v>0.05496833580896324</v>
       </c>
       <c r="C30">
-        <v>-0.05588832661164519</v>
+        <v>-0.001070712424483446</v>
       </c>
       <c r="D30">
-        <v>-0.03812873234507329</v>
+        <v>0.05458390798094251</v>
       </c>
       <c r="E30">
-        <v>-0.08426973818234416</v>
+        <v>-0.03572953022495417</v>
       </c>
       <c r="F30">
-        <v>0.04844845959982128</v>
+        <v>-0.07639045345372665</v>
       </c>
       <c r="G30">
-        <v>-0.04827773324084958</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06342206405420077</v>
+      </c>
+      <c r="H30">
+        <v>-0.03620996753505427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06155885088510014</v>
+        <v>0.05445599674640809</v>
       </c>
       <c r="C31">
-        <v>-0.01640103970904789</v>
+        <v>-0.01938543695038581</v>
       </c>
       <c r="D31">
-        <v>-0.05011411747865743</v>
+        <v>0.02462406865479963</v>
       </c>
       <c r="E31">
-        <v>-0.03616072731936526</v>
+        <v>-0.0101675632984106</v>
       </c>
       <c r="F31">
-        <v>0.03374264230050386</v>
+        <v>-0.02186866235145217</v>
       </c>
       <c r="G31">
-        <v>-0.07918155928775762</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02445077085077567</v>
+      </c>
+      <c r="H31">
+        <v>0.01700397294019552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0203356471356432</v>
+        <v>0.01143649656138166</v>
       </c>
       <c r="C32">
-        <v>-0.0232760012384436</v>
+        <v>-0.01622748154408781</v>
       </c>
       <c r="D32">
-        <v>-0.001093179916594675</v>
+        <v>-0.007549225866563074</v>
       </c>
       <c r="E32">
-        <v>-0.06847491640296037</v>
+        <v>0.01797746343900939</v>
       </c>
       <c r="F32">
-        <v>0.06017832055331747</v>
+        <v>-0.04297922559604542</v>
       </c>
       <c r="G32">
-        <v>-0.05443135855508241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05243649490246945</v>
+      </c>
+      <c r="H32">
+        <v>-0.04153157597930437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05389116413172031</v>
+        <v>0.03854903546339403</v>
       </c>
       <c r="C33">
-        <v>-0.002293400784393751</v>
+        <v>-0.003406228309515385</v>
       </c>
       <c r="D33">
-        <v>-0.0469326997002447</v>
+        <v>0.03148411190254703</v>
       </c>
       <c r="E33">
-        <v>-0.07427164989342183</v>
+        <v>-0.02334392896463909</v>
       </c>
       <c r="F33">
-        <v>0.08675210220376413</v>
+        <v>-0.01551399111275578</v>
       </c>
       <c r="G33">
-        <v>-0.05348409937469304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06242671382135496</v>
+      </c>
+      <c r="H33">
+        <v>-0.01531840013874772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0315422011143859</v>
+        <v>0.0263425160782292</v>
       </c>
       <c r="C34">
-        <v>-0.01682825684744647</v>
+        <v>-0.01914162241388095</v>
       </c>
       <c r="D34">
-        <v>-0.01325357301457707</v>
+        <v>0.02795504561363696</v>
       </c>
       <c r="E34">
-        <v>-0.04375881000341892</v>
+        <v>0.005533006288846231</v>
       </c>
       <c r="F34">
-        <v>0.03754616477416763</v>
+        <v>-0.02624183148726938</v>
       </c>
       <c r="G34">
-        <v>-0.01808370360363376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02764222579700171</v>
+      </c>
+      <c r="H34">
+        <v>-0.02426050601174284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01420213831500499</v>
+        <v>0.01950863442309207</v>
       </c>
       <c r="C36">
-        <v>-0.01328458901216601</v>
+        <v>0.002287440814187571</v>
       </c>
       <c r="D36">
-        <v>-0.002172627176880995</v>
+        <v>-0.003431892329825745</v>
       </c>
       <c r="E36">
-        <v>-0.0278819465614938</v>
+        <v>0.00238279006064305</v>
       </c>
       <c r="F36">
-        <v>0.02398146191866645</v>
+        <v>-0.008760128649730952</v>
       </c>
       <c r="G36">
-        <v>-0.03685250792724046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02012403452611894</v>
+      </c>
+      <c r="H36">
+        <v>0.005417499407597727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002749528116227335</v>
+        <v>0.01777339886153159</v>
       </c>
       <c r="C38">
-        <v>0.00416472020017054</v>
+        <v>-0.0171849500714462</v>
       </c>
       <c r="D38">
-        <v>0.01431347658387344</v>
+        <v>-0.001319852394684212</v>
       </c>
       <c r="E38">
-        <v>0.001276848409945097</v>
+        <v>0.004413231292487919</v>
       </c>
       <c r="F38">
-        <v>0.008673202161547142</v>
+        <v>-0.009580475426469471</v>
       </c>
       <c r="G38">
-        <v>0.02000494843330315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02776480817577078</v>
+      </c>
+      <c r="H38">
+        <v>-0.02117567346558633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03977597455865108</v>
+        <v>0.02461380414541625</v>
       </c>
       <c r="C39">
-        <v>-0.02180265459144107</v>
+        <v>-0.003436704859152793</v>
       </c>
       <c r="D39">
-        <v>-0.03167371717676962</v>
+        <v>0.06532291958391168</v>
       </c>
       <c r="E39">
-        <v>-0.04543448778512596</v>
+        <v>-0.002452926668649883</v>
       </c>
       <c r="F39">
-        <v>0.04385152416737813</v>
+        <v>-0.0456689114071793</v>
       </c>
       <c r="G39">
-        <v>-0.02457426005437354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05512332809561431</v>
+      </c>
+      <c r="H39">
+        <v>-0.04941706205083941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02803388269074351</v>
+        <v>0.02678644570381286</v>
       </c>
       <c r="C40">
-        <v>-0.03883520756022328</v>
+        <v>-0.001905362024142675</v>
       </c>
       <c r="D40">
-        <v>-0.05591881545140676</v>
+        <v>0.02058204795061883</v>
       </c>
       <c r="E40">
-        <v>-0.03865847012000184</v>
+        <v>-0.01926374186869993</v>
       </c>
       <c r="F40">
-        <v>0.08078318065447748</v>
+        <v>-0.03681429849821603</v>
       </c>
       <c r="G40">
-        <v>-0.05587120686415152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04218003409159647</v>
+      </c>
+      <c r="H40">
+        <v>-0.04391491506819261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002312738414086917</v>
+        <v>0.008324313775932769</v>
       </c>
       <c r="C41">
-        <v>0.007533054682910711</v>
+        <v>0.0005146700245592737</v>
       </c>
       <c r="D41">
-        <v>-0.006742265433061258</v>
+        <v>-0.008953159665094499</v>
       </c>
       <c r="E41">
-        <v>-0.01970396912214957</v>
+        <v>-0.001787185735344463</v>
       </c>
       <c r="F41">
-        <v>0.01239567802946096</v>
+        <v>0.004068467032818634</v>
       </c>
       <c r="G41">
-        <v>-0.05793933339171594</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00855665378382644</v>
+      </c>
+      <c r="H41">
+        <v>0.01864711716760081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3643487440969266</v>
+        <v>0.1954155799391585</v>
       </c>
       <c r="C42">
-        <v>0.8898767461917495</v>
+        <v>0.1002385423724311</v>
       </c>
       <c r="D42">
-        <v>-0.1783950078345205</v>
+        <v>0.5751523837734968</v>
       </c>
       <c r="E42">
-        <v>0.1148582195258972</v>
+        <v>-0.1155130012008295</v>
       </c>
       <c r="F42">
-        <v>-0.02717963961211243</v>
+        <v>0.765200678950837</v>
       </c>
       <c r="G42">
-        <v>-0.01706447058914532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.07015411789430098</v>
+      </c>
+      <c r="H42">
+        <v>-0.0133914154851298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00746177543513239</v>
+        <v>0.007335523224703475</v>
       </c>
       <c r="C43">
-        <v>0.003330968218007867</v>
+        <v>0.002277378828391542</v>
       </c>
       <c r="D43">
-        <v>-0.009775026586459061</v>
+        <v>-0.01207598438257177</v>
       </c>
       <c r="E43">
-        <v>-0.02241412375960077</v>
+        <v>-0.006528022316475234</v>
       </c>
       <c r="F43">
-        <v>0.03150270100254995</v>
+        <v>0.009077882693293645</v>
       </c>
       <c r="G43">
-        <v>-0.05112603110426601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01711535422659055</v>
+      </c>
+      <c r="H43">
+        <v>0.01113349000751691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01883638966554798</v>
+        <v>0.01303318390329237</v>
       </c>
       <c r="C44">
-        <v>-0.002058832642532311</v>
+        <v>-0.0005919401752226747</v>
       </c>
       <c r="D44">
-        <v>-0.02492154879983014</v>
+        <v>0.02195759009085519</v>
       </c>
       <c r="E44">
-        <v>-0.06887276926022899</v>
+        <v>0.001737068177477857</v>
       </c>
       <c r="F44">
-        <v>0.1724521905399928</v>
+        <v>-0.005828693790498072</v>
       </c>
       <c r="G44">
-        <v>-0.1644297256606369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08840373795383898</v>
+      </c>
+      <c r="H44">
+        <v>-0.01363502431461689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01918863082025772</v>
+        <v>0.02100891378513211</v>
       </c>
       <c r="C46">
-        <v>-0.02301028411957324</v>
+        <v>1.418262842857451e-05</v>
       </c>
       <c r="D46">
-        <v>-0.02080548877977543</v>
+        <v>0.005530044102777717</v>
       </c>
       <c r="E46">
-        <v>-0.06647012118948312</v>
+        <v>-0.001993739410841108</v>
       </c>
       <c r="F46">
-        <v>0.06319689356975111</v>
+        <v>-0.0333554103766297</v>
       </c>
       <c r="G46">
-        <v>-0.05840403427389287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05767273084404618</v>
+      </c>
+      <c r="H46">
+        <v>0.01486776077793482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09637516111689223</v>
+        <v>0.07439932632202828</v>
       </c>
       <c r="C47">
-        <v>-0.03566472309630107</v>
+        <v>-0.03678191214196772</v>
       </c>
       <c r="D47">
-        <v>-0.02607892502951448</v>
+        <v>0.03012291406496188</v>
       </c>
       <c r="E47">
-        <v>-0.03774003941874342</v>
+        <v>-0.005771750075443181</v>
       </c>
       <c r="F47">
-        <v>-0.0007538499897113832</v>
+        <v>-0.03267257341379681</v>
       </c>
       <c r="G47">
-        <v>-0.08814619754972937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008734531910593228</v>
+      </c>
+      <c r="H47">
+        <v>0.03279282713745903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01372831469240495</v>
+        <v>0.0199311155063285</v>
       </c>
       <c r="C48">
-        <v>-0.005945100753913714</v>
+        <v>-0.007796657335356081</v>
       </c>
       <c r="D48">
-        <v>-0.01539812349762263</v>
+        <v>0.003837607161258898</v>
       </c>
       <c r="E48">
-        <v>-0.03886578008341746</v>
+        <v>-0.002292874317575273</v>
       </c>
       <c r="F48">
-        <v>0.04024112482178224</v>
+        <v>-0.01142981708303848</v>
       </c>
       <c r="G48">
-        <v>-0.02148852553351354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02745916425698412</v>
+      </c>
+      <c r="H48">
+        <v>0.001467738238071113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08872337784081025</v>
+        <v>0.06631113799862796</v>
       </c>
       <c r="C50">
-        <v>-0.01485129702473769</v>
+        <v>-0.02994321196939554</v>
       </c>
       <c r="D50">
-        <v>-0.03811318282926003</v>
+        <v>0.04267679236584829</v>
       </c>
       <c r="E50">
-        <v>-0.05718824261478504</v>
+        <v>0.009419283603023245</v>
       </c>
       <c r="F50">
-        <v>0.02285675211381557</v>
+        <v>-0.02824680066790401</v>
       </c>
       <c r="G50">
-        <v>-0.04113375268261586</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02372615380113588</v>
+      </c>
+      <c r="H50">
+        <v>0.02884891080310988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02869903609681112</v>
+        <v>0.02218040406220673</v>
       </c>
       <c r="C51">
-        <v>-0.0192721787754427</v>
+        <v>-0.002568856529555791</v>
       </c>
       <c r="D51">
-        <v>-0.03264090631203272</v>
+        <v>-0.009052844153885312</v>
       </c>
       <c r="E51">
-        <v>-0.02767821949338562</v>
+        <v>-0.007321646458711784</v>
       </c>
       <c r="F51">
-        <v>0.1254915103529749</v>
+        <v>0.000916664619220234</v>
       </c>
       <c r="G51">
-        <v>-0.0495637037108182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07370092959828019</v>
+      </c>
+      <c r="H51">
+        <v>-0.02218251884533047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1042283189399466</v>
+        <v>0.09414276110242954</v>
       </c>
       <c r="C53">
-        <v>-0.0491687397354521</v>
+        <v>-0.04576915263447125</v>
       </c>
       <c r="D53">
-        <v>-0.04340240185440807</v>
+        <v>0.05789429551964311</v>
       </c>
       <c r="E53">
-        <v>-0.04524434832793773</v>
+        <v>-0.003643888706347123</v>
       </c>
       <c r="F53">
-        <v>-0.05523103769194278</v>
+        <v>-0.06628890053002356</v>
       </c>
       <c r="G53">
-        <v>-0.03223793521123882</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05584560621923739</v>
+      </c>
+      <c r="H53">
+        <v>0.03652257202817558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01827848032384078</v>
+        <v>0.02435788738779974</v>
       </c>
       <c r="C54">
-        <v>-0.03797764583263811</v>
+        <v>-0.01545052298812734</v>
       </c>
       <c r="D54">
-        <v>-0.001692933822727334</v>
+        <v>-0.0234578931908339</v>
       </c>
       <c r="E54">
-        <v>-0.03287035767194284</v>
+        <v>0.003127164092064136</v>
       </c>
       <c r="F54">
-        <v>0.06801670786311818</v>
+        <v>-0.01295030033239654</v>
       </c>
       <c r="G54">
-        <v>-0.07203227379201001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03847730470802942</v>
+      </c>
+      <c r="H54">
+        <v>0.01725105835649927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1021819554863877</v>
+        <v>0.08077984845465899</v>
       </c>
       <c r="C55">
-        <v>-0.03276002016152684</v>
+        <v>-0.04008272115003507</v>
       </c>
       <c r="D55">
-        <v>-0.003940041700542339</v>
+        <v>0.05867980898720029</v>
       </c>
       <c r="E55">
-        <v>-0.05237019150232394</v>
+        <v>0.008335821107704779</v>
       </c>
       <c r="F55">
-        <v>-0.04979568754339984</v>
+        <v>-0.05571083080606463</v>
       </c>
       <c r="G55">
-        <v>-0.07042581754946679</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03594673252044119</v>
+      </c>
+      <c r="H55">
+        <v>0.04794334526248518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1461775541704229</v>
+        <v>0.1267064076327438</v>
       </c>
       <c r="C56">
-        <v>-0.07945750990318617</v>
+        <v>-0.06791666494293878</v>
       </c>
       <c r="D56">
-        <v>-0.02827179528920663</v>
+        <v>0.0774439335902965</v>
       </c>
       <c r="E56">
-        <v>-0.0550652004658598</v>
+        <v>0.0004333210699166293</v>
       </c>
       <c r="F56">
-        <v>-0.1623097910451306</v>
+        <v>-0.09333110722253191</v>
       </c>
       <c r="G56">
-        <v>-0.00222121887550462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1028712498749192</v>
+      </c>
+      <c r="H56">
+        <v>0.02909873994702322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04453822551982291</v>
+        <v>0.04495900058064768</v>
       </c>
       <c r="C57">
-        <v>-0.01020893250062962</v>
+        <v>0.004876103390883782</v>
       </c>
       <c r="D57">
-        <v>-0.03591202386388413</v>
+        <v>0.01927154833066529</v>
       </c>
       <c r="E57">
-        <v>-0.01121370817873746</v>
+        <v>-0.01152777842374591</v>
       </c>
       <c r="F57">
-        <v>0.0716888723928599</v>
+        <v>-0.02376903602964757</v>
       </c>
       <c r="G57">
-        <v>-0.03970047797581136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06273691596228118</v>
+      </c>
+      <c r="H57">
+        <v>-0.009974275724013141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1938319541014933</v>
+        <v>0.1415064990102693</v>
       </c>
       <c r="C58">
-        <v>-0.04656017600086387</v>
+        <v>-0.05289814401941036</v>
       </c>
       <c r="D58">
-        <v>-0.1160671911044788</v>
+        <v>0.1262509504193501</v>
       </c>
       <c r="E58">
-        <v>-0.2640915617697835</v>
+        <v>-0.1127234019697345</v>
       </c>
       <c r="F58">
-        <v>0.2240672466937971</v>
+        <v>-0.05940812614126539</v>
       </c>
       <c r="G58">
-        <v>0.06533906472396357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6811272406308917</v>
+      </c>
+      <c r="H58">
+        <v>0.5431152428384864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07446692698716025</v>
+        <v>0.1426749110845064</v>
       </c>
       <c r="C59">
-        <v>-0.08437440932632778</v>
+        <v>-0.05456076173865464</v>
       </c>
       <c r="D59">
-        <v>0.02347174930698779</v>
+        <v>-0.2119739932261773</v>
       </c>
       <c r="E59">
-        <v>0.1413796782820011</v>
+        <v>-0.04149062740514101</v>
       </c>
       <c r="F59">
-        <v>0.09268171359322061</v>
+        <v>0.0885080746366521</v>
       </c>
       <c r="G59">
-        <v>0.03462814172986469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02088851974440293</v>
+      </c>
+      <c r="H59">
+        <v>-0.0211901461681732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1653111275799216</v>
+        <v>0.1684745440458425</v>
       </c>
       <c r="C60">
-        <v>-0.05462656195201799</v>
+        <v>-0.05272054062751875</v>
       </c>
       <c r="D60">
-        <v>-0.07304225786059831</v>
+        <v>0.01673685204275855</v>
       </c>
       <c r="E60">
-        <v>-0.04073124572312294</v>
+        <v>-0.05692116305389692</v>
       </c>
       <c r="F60">
-        <v>0.1352135857175122</v>
+        <v>-0.05741737614909564</v>
       </c>
       <c r="G60">
-        <v>0.3159860054219173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1291896567056084</v>
+      </c>
+      <c r="H60">
+        <v>-0.3743835320867508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0215562255657326</v>
+        <v>0.02377161350021969</v>
       </c>
       <c r="C61">
-        <v>-0.01229738057658616</v>
+        <v>-0.00883135019274397</v>
       </c>
       <c r="D61">
-        <v>-0.006635183894068868</v>
+        <v>0.03411233453987882</v>
       </c>
       <c r="E61">
-        <v>-0.02073266810653703</v>
+        <v>0.002181207934854213</v>
       </c>
       <c r="F61">
-        <v>0.02997036485656646</v>
+        <v>-0.03208929947030706</v>
       </c>
       <c r="G61">
-        <v>-0.0257956726558034</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03229801690991849</v>
+      </c>
+      <c r="H61">
+        <v>-0.03750665202616812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0183210032459423</v>
+        <v>0.01455931902252713</v>
       </c>
       <c r="C63">
-        <v>-0.01690970523639684</v>
+        <v>-0.000248412037694255</v>
       </c>
       <c r="D63">
-        <v>-0.01384213039633822</v>
+        <v>0.004273157808854757</v>
       </c>
       <c r="E63">
-        <v>-0.03959794175835139</v>
+        <v>0.001796857173198235</v>
       </c>
       <c r="F63">
-        <v>0.009998813418097193</v>
+        <v>-0.02188614594880248</v>
       </c>
       <c r="G63">
-        <v>-0.04196628142832783</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01582641459236998</v>
+      </c>
+      <c r="H63">
+        <v>0.01327049174843939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03821203888308647</v>
+        <v>0.04164922319878733</v>
       </c>
       <c r="C64">
-        <v>-0.02526039947715768</v>
+        <v>-0.01435880110556362</v>
       </c>
       <c r="D64">
-        <v>0.0182505023305243</v>
+        <v>0.03068314154549956</v>
       </c>
       <c r="E64">
-        <v>-0.0401157098847244</v>
+        <v>0.0105299220520387</v>
       </c>
       <c r="F64">
-        <v>0.01993834280615246</v>
+        <v>-0.02705486302587889</v>
       </c>
       <c r="G64">
-        <v>-0.06920516235676626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02012019080200734</v>
+      </c>
+      <c r="H64">
+        <v>-0.02503065896093912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01304574526706336</v>
+        <v>0.03513209013025449</v>
       </c>
       <c r="C65">
-        <v>0.00263575872073913</v>
+        <v>0.0008951636519360115</v>
       </c>
       <c r="D65">
-        <v>-0.01304912791701334</v>
+        <v>0.0406790920587166</v>
       </c>
       <c r="E65">
-        <v>-0.01686230115489002</v>
+        <v>0.005633384732849916</v>
       </c>
       <c r="F65">
-        <v>0.00843707093655839</v>
+        <v>-0.03766444558456811</v>
       </c>
       <c r="G65">
-        <v>0.008177491447796354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002707426831797271</v>
+      </c>
+      <c r="H65">
+        <v>-0.06003568131614982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03864851772658351</v>
+        <v>0.03179850023832394</v>
       </c>
       <c r="C66">
-        <v>-0.02684593421033033</v>
+        <v>-0.009277941947849339</v>
       </c>
       <c r="D66">
-        <v>-0.02457047899199103</v>
+        <v>0.07227794643860262</v>
       </c>
       <c r="E66">
-        <v>-0.04390446520062612</v>
+        <v>-0.007765326074117865</v>
       </c>
       <c r="F66">
-        <v>0.03893522293369684</v>
+        <v>-0.06460151314346889</v>
       </c>
       <c r="G66">
-        <v>-0.01234809722762059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04702970914136784</v>
+      </c>
+      <c r="H66">
+        <v>-0.05955503133898786</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02359285844890451</v>
+        <v>0.03862656896696614</v>
       </c>
       <c r="C67">
-        <v>-0.004155329220376268</v>
+        <v>-0.0227134706748823</v>
       </c>
       <c r="D67">
-        <v>0.01524158310503813</v>
+        <v>-0.007373208129768826</v>
       </c>
       <c r="E67">
-        <v>0.02238274593115704</v>
+        <v>0.0008242581442180767</v>
       </c>
       <c r="F67">
-        <v>0.01833511780858627</v>
+        <v>-0.0115398327014503</v>
       </c>
       <c r="G67">
-        <v>0.01906507544854883</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0167490086509183</v>
+      </c>
+      <c r="H67">
+        <v>-0.03248819692850198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08487371802428234</v>
+        <v>0.1466030945878973</v>
       </c>
       <c r="C68">
-        <v>-0.06394848162588823</v>
+        <v>-0.03355768352425495</v>
       </c>
       <c r="D68">
-        <v>0.03877914485871215</v>
+        <v>-0.1969966559989791</v>
       </c>
       <c r="E68">
-        <v>0.1686981001855487</v>
+        <v>-0.03694967428168157</v>
       </c>
       <c r="F68">
-        <v>0.06979288272741793</v>
+        <v>0.1083411606889034</v>
       </c>
       <c r="G68">
-        <v>0.07965309180258326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02043195284869985</v>
+      </c>
+      <c r="H68">
+        <v>0.0400312686943288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07272512759605713</v>
+        <v>0.05712039307586411</v>
       </c>
       <c r="C69">
-        <v>-0.03371463609369175</v>
+        <v>-0.03294765728820833</v>
       </c>
       <c r="D69">
-        <v>-0.02619759226300903</v>
+        <v>0.0285086521050413</v>
       </c>
       <c r="E69">
-        <v>-0.004656100292824681</v>
+        <v>-0.005123477494165371</v>
       </c>
       <c r="F69">
-        <v>0.01497307676745229</v>
+        <v>-0.03116636406335236</v>
       </c>
       <c r="G69">
-        <v>-0.07973976606825092</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.002871458425565568</v>
+      </c>
+      <c r="H69">
+        <v>0.01266828941235269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1055022979154254</v>
+        <v>0.1395884061791765</v>
       </c>
       <c r="C71">
-        <v>-0.07000145854700902</v>
+        <v>-0.04102087318894053</v>
       </c>
       <c r="D71">
-        <v>0.01716539948587106</v>
+        <v>-0.1835207389823701</v>
       </c>
       <c r="E71">
-        <v>0.2110245933452361</v>
+        <v>-0.03671688378204213</v>
       </c>
       <c r="F71">
-        <v>0.09020317699396753</v>
+        <v>0.1135743053773119</v>
       </c>
       <c r="G71">
-        <v>0.05299354014253192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01941096250401611</v>
+      </c>
+      <c r="H71">
+        <v>0.02427185073335912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1072107884486776</v>
+        <v>0.08619744569711281</v>
       </c>
       <c r="C72">
-        <v>-0.09252296869456254</v>
+        <v>-0.0499398501512384</v>
       </c>
       <c r="D72">
-        <v>-0.02155778608219575</v>
+        <v>0.05937119790421091</v>
       </c>
       <c r="E72">
-        <v>-0.08222932006035827</v>
+        <v>-0.00939017166939971</v>
       </c>
       <c r="F72">
-        <v>0.09013998117897232</v>
+        <v>-0.1093666967752155</v>
       </c>
       <c r="G72">
-        <v>0.1078473901318038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09767415913070231</v>
+      </c>
+      <c r="H72">
+        <v>-0.1500627599128001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2489227741405465</v>
+        <v>0.2375103271613975</v>
       </c>
       <c r="C73">
-        <v>-0.08388727955115578</v>
+        <v>-0.07011385570094412</v>
       </c>
       <c r="D73">
-        <v>-0.06635137435343133</v>
+        <v>0.05173900007971131</v>
       </c>
       <c r="E73">
-        <v>-0.001988412123078897</v>
+        <v>-0.08446610225600276</v>
       </c>
       <c r="F73">
-        <v>0.2213776871608267</v>
+        <v>-0.07404498330926941</v>
       </c>
       <c r="G73">
-        <v>0.4556418940582969</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1847744449687668</v>
+      </c>
+      <c r="H73">
+        <v>-0.5123927949058379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1243675032923082</v>
+        <v>0.1141432416957841</v>
       </c>
       <c r="C74">
-        <v>-0.04085013543197372</v>
+        <v>-0.06048177129455978</v>
       </c>
       <c r="D74">
-        <v>-0.03649278119593454</v>
+        <v>0.07838785765056465</v>
       </c>
       <c r="E74">
-        <v>-0.02528917734313894</v>
+        <v>-0.007889247672429565</v>
       </c>
       <c r="F74">
-        <v>-0.09802292807896955</v>
+        <v>-0.0766309544497044</v>
       </c>
       <c r="G74">
-        <v>0.02234238013246009</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07690805666855036</v>
+      </c>
+      <c r="H74">
+        <v>0.009655283338538115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2154850508876977</v>
+        <v>0.2234645293438213</v>
       </c>
       <c r="C75">
-        <v>-0.1192377031442658</v>
+        <v>-0.1209969432980476</v>
       </c>
       <c r="D75">
-        <v>-0.06896092436926503</v>
+        <v>0.1190447737713048</v>
       </c>
       <c r="E75">
-        <v>-0.07715997640325487</v>
+        <v>-0.02568386542456445</v>
       </c>
       <c r="F75">
-        <v>-0.1784502984765847</v>
+        <v>-0.1538693961138435</v>
       </c>
       <c r="G75">
-        <v>-0.04483309705334509</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1602801218986725</v>
+      </c>
+      <c r="H75">
+        <v>0.09183638678989041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2694356769687949</v>
+        <v>0.2068757510949994</v>
       </c>
       <c r="C76">
-        <v>-0.1231908244529</v>
+        <v>-0.1158888017195164</v>
       </c>
       <c r="D76">
-        <v>-0.01277624735840739</v>
+        <v>0.107875673398435</v>
       </c>
       <c r="E76">
-        <v>-0.05045049640887024</v>
+        <v>0.01419439979092829</v>
       </c>
       <c r="F76">
-        <v>-0.2055034231202899</v>
+        <v>-0.1469116008399305</v>
       </c>
       <c r="G76">
-        <v>-0.05488501289736921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1730519619044837</v>
+      </c>
+      <c r="H76">
+        <v>0.09316274318829139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1367163037334243</v>
+        <v>0.07219069548623354</v>
       </c>
       <c r="C77">
-        <v>0.02279870149351676</v>
+        <v>-0.01385188904372623</v>
       </c>
       <c r="D77">
-        <v>-0.06666089573899696</v>
+        <v>0.07316579034438514</v>
       </c>
       <c r="E77">
-        <v>-0.1183991880362341</v>
+        <v>-0.01190173435773409</v>
       </c>
       <c r="F77">
-        <v>0.2219348454699983</v>
+        <v>-0.003979585350414994</v>
       </c>
       <c r="G77">
-        <v>-0.1269362130200397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1309923553211867</v>
+      </c>
+      <c r="H77">
+        <v>0.06526692367154283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05407933804467263</v>
+        <v>0.0353399915206204</v>
       </c>
       <c r="C78">
-        <v>-0.01356305817463537</v>
+        <v>-0.01243122788846268</v>
       </c>
       <c r="D78">
-        <v>-0.03566737451343068</v>
+        <v>0.05809319803416454</v>
       </c>
       <c r="E78">
-        <v>-0.1076136700676857</v>
+        <v>0.003782006958395884</v>
       </c>
       <c r="F78">
-        <v>0.02498596284208374</v>
+        <v>-0.05319538330100074</v>
       </c>
       <c r="G78">
-        <v>-0.0589835615710573</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05217600816145878</v>
+      </c>
+      <c r="H78">
+        <v>-0.02770178233975138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.216338605832711</v>
+        <v>0.1750945138837947</v>
       </c>
       <c r="C80">
-        <v>0.1362944918053915</v>
+        <v>-0.0685273925025304</v>
       </c>
       <c r="D80">
-        <v>0.9266511781194698</v>
+        <v>0.0112702642593922</v>
       </c>
       <c r="E80">
-        <v>-0.2342433695118153</v>
+        <v>0.9615561084407702</v>
       </c>
       <c r="F80">
-        <v>0.04122434196273969</v>
+        <v>0.1173967063746745</v>
       </c>
       <c r="G80">
-        <v>0.03198048967027696</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09669876368415158</v>
+      </c>
+      <c r="H80">
+        <v>-0.0091590191062157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1585693770921708</v>
+        <v>0.1500734569436716</v>
       </c>
       <c r="C81">
-        <v>-0.09814940863338251</v>
+        <v>-0.08076153399365585</v>
       </c>
       <c r="D81">
-        <v>-0.02108924094797386</v>
+        <v>0.07087195737916219</v>
       </c>
       <c r="E81">
-        <v>-0.04873810972053603</v>
+        <v>-0.002419712914723553</v>
       </c>
       <c r="F81">
-        <v>-0.1761087513916209</v>
+        <v>-0.1030651945892864</v>
       </c>
       <c r="G81">
-        <v>-0.01167185151478637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1033230705070182</v>
+      </c>
+      <c r="H81">
+        <v>0.06748265769003091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05327136764791722</v>
+        <v>0.03894790230312171</v>
       </c>
       <c r="C83">
-        <v>0.006848085138919265</v>
+        <v>-0.01084550424599396</v>
       </c>
       <c r="D83">
-        <v>-0.03918601880462202</v>
+        <v>0.0201420851327127</v>
       </c>
       <c r="E83">
-        <v>-0.03550595063339741</v>
+        <v>-0.01337969562418891</v>
       </c>
       <c r="F83">
-        <v>0.05952763720129431</v>
+        <v>-0.01380491200509455</v>
       </c>
       <c r="G83">
-        <v>-0.05191732945105534</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05870937263059038</v>
+      </c>
+      <c r="H83">
+        <v>-0.01444427100068665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2304018877666234</v>
+        <v>0.2103052989353189</v>
       </c>
       <c r="C85">
-        <v>-0.1049227172569714</v>
+        <v>-0.1012936955080696</v>
       </c>
       <c r="D85">
-        <v>-0.04300665471716764</v>
+        <v>0.126776495813951</v>
       </c>
       <c r="E85">
-        <v>-0.04920228887421999</v>
+        <v>-0.01696036889770438</v>
       </c>
       <c r="F85">
-        <v>-0.2010535075888387</v>
+        <v>-0.1375003267535839</v>
       </c>
       <c r="G85">
-        <v>-0.07424293613558373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1693402702468568</v>
+      </c>
+      <c r="H85">
+        <v>0.06251727221074317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003607605174507824</v>
+        <v>0.01445947724255241</v>
       </c>
       <c r="C86">
-        <v>0.008647584086428959</v>
+        <v>0.0008705979601715404</v>
       </c>
       <c r="D86">
-        <v>-0.00139880621771622</v>
+        <v>0.004611739617874757</v>
       </c>
       <c r="E86">
-        <v>-0.04711572362105585</v>
+        <v>-0.009642475823069182</v>
       </c>
       <c r="F86">
-        <v>0.0757955354866352</v>
+        <v>0.001639525391302198</v>
       </c>
       <c r="G86">
-        <v>-0.02783268806809022</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08710883922996177</v>
+      </c>
+      <c r="H86">
+        <v>-0.03828233689755097</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03142691854719875</v>
+        <v>0.02753941410070168</v>
       </c>
       <c r="C87">
-        <v>-0.007522061445618526</v>
+        <v>-0.004881760625719153</v>
       </c>
       <c r="D87">
-        <v>-0.0155102054628792</v>
+        <v>0.02622394403051806</v>
       </c>
       <c r="E87">
-        <v>-0.03772737260328357</v>
+        <v>-0.0009749688640796836</v>
       </c>
       <c r="F87">
-        <v>0.07490989963214977</v>
+        <v>-0.02665539421467253</v>
       </c>
       <c r="G87">
-        <v>-0.002693075605048491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09355501093460115</v>
+      </c>
+      <c r="H87">
+        <v>-0.02739138491982028</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009608282805081747</v>
+        <v>0.03840130039761751</v>
       </c>
       <c r="C88">
-        <v>-0.01799865137957322</v>
+        <v>0.006921249970207808</v>
       </c>
       <c r="D88">
-        <v>0.02376346443157566</v>
+        <v>-0.005095085996836526</v>
       </c>
       <c r="E88">
-        <v>0.007714210483693838</v>
+        <v>0.007552424401937274</v>
       </c>
       <c r="F88">
-        <v>0.03510701869045576</v>
+        <v>-0.01341406077347831</v>
       </c>
       <c r="G88">
-        <v>-0.06794880901972074</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.002148259215237224</v>
+      </c>
+      <c r="H88">
+        <v>-0.006537874946539818</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1256490152950558</v>
+        <v>0.222423847976301</v>
       </c>
       <c r="C89">
-        <v>-0.0892183634255674</v>
+        <v>-0.06106404899454679</v>
       </c>
       <c r="D89">
-        <v>0.02345742461822535</v>
+        <v>-0.315969892739868</v>
       </c>
       <c r="E89">
-        <v>0.285645866861316</v>
+        <v>-0.07815398595942413</v>
       </c>
       <c r="F89">
-        <v>0.1510815502710634</v>
+        <v>0.1638017952857809</v>
       </c>
       <c r="G89">
-        <v>0.02082038726450287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001475251035559706</v>
+      </c>
+      <c r="H89">
+        <v>0.03145669153081841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1134559133072617</v>
+        <v>0.1781944691192217</v>
       </c>
       <c r="C90">
-        <v>-0.0918336222595266</v>
+        <v>-0.0500536945508398</v>
       </c>
       <c r="D90">
-        <v>0.06966363621246228</v>
+        <v>-0.2790419470015653</v>
       </c>
       <c r="E90">
-        <v>0.2810903027573048</v>
+        <v>-0.05224250872015932</v>
       </c>
       <c r="F90">
-        <v>0.1100350034454945</v>
+        <v>0.1569192369028531</v>
       </c>
       <c r="G90">
-        <v>0.0450976480591477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03131709214662316</v>
+      </c>
+      <c r="H90">
+        <v>0.04615352402320328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2886858777782586</v>
+        <v>0.227734276709916</v>
       </c>
       <c r="C91">
-        <v>-0.09724243435407699</v>
+        <v>-0.1212553746514261</v>
       </c>
       <c r="D91">
-        <v>-0.05885208178398644</v>
+        <v>0.1217585542096427</v>
       </c>
       <c r="E91">
-        <v>-0.03514390817775671</v>
+        <v>-0.01687155720830142</v>
       </c>
       <c r="F91">
-        <v>-0.2634151359466765</v>
+        <v>-0.1404124401651624</v>
       </c>
       <c r="G91">
-        <v>-0.02355079656357653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2094647304046394</v>
+      </c>
+      <c r="H91">
+        <v>0.1232572597575525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1912188418302409</v>
+        <v>0.2310965001330655</v>
       </c>
       <c r="C92">
-        <v>-0.09232566426236127</v>
+        <v>-0.1180064650280097</v>
       </c>
       <c r="D92">
-        <v>0.1052523711710495</v>
+        <v>-0.221562566602979</v>
       </c>
       <c r="E92">
-        <v>0.4702316431822966</v>
+        <v>-0.03574817451564536</v>
       </c>
       <c r="F92">
-        <v>0.05272181959515453</v>
+        <v>0.127923013847972</v>
       </c>
       <c r="G92">
-        <v>-0.5198938262789335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04345911820247763</v>
+      </c>
+      <c r="H92">
+        <v>0.1412074193017699</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1229214937697202</v>
+        <v>0.2026614463496314</v>
       </c>
       <c r="C93">
-        <v>-0.07237988939243538</v>
+        <v>-0.0633725519219024</v>
       </c>
       <c r="D93">
-        <v>0.08548821583976643</v>
+        <v>-0.2940883653701555</v>
       </c>
       <c r="E93">
-        <v>0.3918672406036738</v>
+        <v>-0.06719681484836469</v>
       </c>
       <c r="F93">
-        <v>0.08331712625180938</v>
+        <v>0.1942217586317439</v>
       </c>
       <c r="G93">
-        <v>0.1095318043540147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04185097285763537</v>
+      </c>
+      <c r="H93">
+        <v>-0.01487917289054929</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2641587581028179</v>
+        <v>0.2510665052961313</v>
       </c>
       <c r="C94">
-        <v>-0.1278261657462129</v>
+        <v>-0.1129432884968098</v>
       </c>
       <c r="D94">
-        <v>-0.02742059505700535</v>
+        <v>0.1065161139322428</v>
       </c>
       <c r="E94">
-        <v>-0.03226667304137881</v>
+        <v>-0.03694799155517269</v>
       </c>
       <c r="F94">
-        <v>-0.3104859001571504</v>
+        <v>-0.1594971621444853</v>
       </c>
       <c r="G94">
-        <v>0.03419070431082904</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2168643716983387</v>
+      </c>
+      <c r="H94">
+        <v>0.1373087453127675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08016239762064929</v>
+        <v>0.06577386662386882</v>
       </c>
       <c r="C95">
-        <v>-0.01564667883002972</v>
+        <v>-0.03832400814043425</v>
       </c>
       <c r="D95">
-        <v>-0.06419415579936585</v>
+        <v>0.07777363896200543</v>
       </c>
       <c r="E95">
-        <v>-0.06809680416106044</v>
+        <v>-0.07158386270298994</v>
       </c>
       <c r="F95">
-        <v>0.03178877244557894</v>
+        <v>-0.03181749022058604</v>
       </c>
       <c r="G95">
-        <v>-0.2464757764732403</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06183669349576326</v>
+      </c>
+      <c r="H95">
+        <v>0.00163530441434413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1855262972240263</v>
+        <v>0.174890744730486</v>
       </c>
       <c r="C98">
-        <v>-0.03998798342761398</v>
+        <v>-0.08427345024158057</v>
       </c>
       <c r="D98">
-        <v>-0.05288627545238785</v>
+        <v>0.03765151383337426</v>
       </c>
       <c r="E98">
-        <v>0.02782406734437683</v>
+        <v>-0.05609184003337137</v>
       </c>
       <c r="F98">
-        <v>0.09378120750898788</v>
+        <v>-0.03277423870288913</v>
       </c>
       <c r="G98">
-        <v>0.3066965228659309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1540202452363889</v>
+      </c>
+      <c r="H98">
+        <v>-0.3702774525239841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003822845747860247</v>
+        <v>0.01426723582594155</v>
       </c>
       <c r="C101">
-        <v>-0.02987251178102148</v>
+        <v>-0.001458067585327264</v>
       </c>
       <c r="D101">
-        <v>-0.0102682203243451</v>
+        <v>0.002475242172095124</v>
       </c>
       <c r="E101">
-        <v>-0.1280485939108226</v>
+        <v>0.005362978722657017</v>
       </c>
       <c r="F101">
-        <v>0.1402723639735592</v>
+        <v>-0.03584359716157087</v>
       </c>
       <c r="G101">
-        <v>-0.1181398804936072</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1000487011813744</v>
+      </c>
+      <c r="H101">
+        <v>0.07391489874340712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09612353507070384</v>
+        <v>0.1049432894599671</v>
       </c>
       <c r="C102">
-        <v>-0.03168098648916736</v>
+        <v>-0.04279888251081371</v>
       </c>
       <c r="D102">
-        <v>-0.01247122726044347</v>
+        <v>0.06370242084454043</v>
       </c>
       <c r="E102">
-        <v>-0.05914165018196251</v>
+        <v>-0.001298556410995096</v>
       </c>
       <c r="F102">
-        <v>-0.1394816767030548</v>
+        <v>-0.07142713746015754</v>
       </c>
       <c r="G102">
-        <v>-0.06710560814523379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09388704343092978</v>
+      </c>
+      <c r="H102">
+        <v>0.05445315413176529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02535122274513122</v>
+        <v>0.02081493290994605</v>
       </c>
       <c r="C103">
-        <v>-0.01213174611679945</v>
+        <v>-0.009681703299706671</v>
       </c>
       <c r="D103">
-        <v>-0.01257423173355499</v>
+        <v>0.012880805099969</v>
       </c>
       <c r="E103">
-        <v>-0.002962429513479393</v>
+        <v>0.005378782389825217</v>
       </c>
       <c r="F103">
-        <v>-0.01681971649416172</v>
+        <v>-0.01832867568752888</v>
       </c>
       <c r="G103">
-        <v>-0.02027828497916487</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.006610558884449468</v>
+      </c>
+      <c r="H103">
+        <v>0.01022848042244205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3518462119707229</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9141322715733934</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06239142635590261</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02447005239969031</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1573317474871753</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.040417110034211</v>
+      </c>
+      <c r="H104">
+        <v>0.03036006485943638</v>
       </c>
     </row>
   </sheetData>
